--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slitrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slitrk3-Ptprs.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3694786666666667</v>
+        <v>1.465929666666667</v>
       </c>
       <c r="H2">
-        <v>1.108436</v>
+        <v>4.397789</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N2">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q2">
-        <v>1.141820491245778</v>
+        <v>2.434060403056333</v>
       </c>
       <c r="R2">
-        <v>10.276384421212</v>
+        <v>21.90654362750699</v>
       </c>
       <c r="S2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="T2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3694786666666667</v>
+        <v>1.465929666666667</v>
       </c>
       <c r="H3">
-        <v>1.108436</v>
+        <v>4.397789</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P3">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q3">
-        <v>9.300132862679554</v>
+        <v>36.89885749112322</v>
       </c>
       <c r="R3">
-        <v>83.70119576411599</v>
+        <v>332.0897174201089</v>
       </c>
       <c r="S3">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="T3">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3694786666666667</v>
+        <v>1.465929666666667</v>
       </c>
       <c r="H4">
-        <v>1.108436</v>
+        <v>4.397789</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N4">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q4">
-        <v>6.037900413259555</v>
+        <v>26.19058528095167</v>
       </c>
       <c r="R4">
-        <v>54.341103719336</v>
+        <v>235.715267528565</v>
       </c>
       <c r="S4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="T4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
     </row>
   </sheetData>
